--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ngf-Sorcs3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ngf-Sorcs3.xlsx
@@ -528,34 +528,34 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.814087666666667</v>
+      </c>
+      <c r="H2">
+        <v>5.442263</v>
+      </c>
+      <c r="I2">
+        <v>0.1211063206477811</v>
+      </c>
+      <c r="J2">
+        <v>0.1211063206477811</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.05916633333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.177499</v>
-      </c>
-      <c r="I2">
-        <v>0.005840587905374044</v>
-      </c>
-      <c r="J2">
-        <v>0.005840587905374045</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0.08256033333333333</v>
+        <v>0.005316</v>
       </c>
       <c r="N2">
-        <v>0.247681</v>
+        <v>0.015948</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.004884792202111111</v>
+        <v>0.009643690036</v>
       </c>
       <c r="R2">
-        <v>0.043963129819</v>
+        <v>0.086793210324</v>
       </c>
       <c r="S2">
-        <v>0.005840587905374044</v>
+        <v>0.1211063206477811</v>
       </c>
       <c r="T2">
-        <v>0.005840587905374045</v>
+        <v>0.1211063206477811</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>17.245094</v>
       </c>
       <c r="I3">
-        <v>0.567448196572592</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="J3">
-        <v>0.5674481965725922</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.08256033333333333</v>
+        <v>0.005316</v>
       </c>
       <c r="N3">
-        <v>0.247681</v>
+        <v>0.015948</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4745869030015556</v>
+        <v>0.03055830656800001</v>
       </c>
       <c r="R3">
-        <v>4.271282127014</v>
+        <v>0.275024759112</v>
       </c>
       <c r="S3">
-        <v>0.567448196572592</v>
+        <v>0.3837539427192561</v>
       </c>
       <c r="T3">
-        <v>0.5674481965725922</v>
+        <v>0.3837539427192561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.322670666666666</v>
+        <v>7.416845666666667</v>
       </c>
       <c r="H4">
-        <v>12.968012</v>
+        <v>22.250537</v>
       </c>
       <c r="I4">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="J4">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08256033333333333</v>
+        <v>0.005316</v>
       </c>
       <c r="N4">
-        <v>0.247681</v>
+        <v>0.015948</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.3568811311302222</v>
+        <v>0.039427951564</v>
       </c>
       <c r="R4">
-        <v>3.211930180171999</v>
+        <v>0.354851564076</v>
       </c>
       <c r="S4">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
       <c r="T4">
-        <v>0.4267112155220338</v>
+        <v>0.4951397366329628</v>
       </c>
     </row>
   </sheetData>
